--- a/Code/Results/Cases/Case_1_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_95/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.359432074872302</v>
+        <v>3.032735120064274</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8855463182734979</v>
+        <v>0.2833460919314064</v>
       </c>
       <c r="E2">
-        <v>0.5257761861994865</v>
+        <v>0.1393265427079342</v>
       </c>
       <c r="F2">
-        <v>6.833904581348349</v>
+        <v>6.59407392202786</v>
       </c>
       <c r="G2">
-        <v>0.0007758321635143752</v>
+        <v>0.002685557512994389</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4671917490853019</v>
+        <v>0.1342384014459554</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.434933594507356</v>
+        <v>1.545165939102986</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.93447300903739</v>
+        <v>2.955087695476834</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7487276185202347</v>
+        <v>0.2538119477628413</v>
       </c>
       <c r="E3">
-        <v>0.4470194640080152</v>
+        <v>0.1208143278345304</v>
       </c>
       <c r="F3">
-        <v>6.078550573736976</v>
+        <v>6.485554242696054</v>
       </c>
       <c r="G3">
-        <v>0.0007963081169715375</v>
+        <v>0.002696892544302101</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4053281925348386</v>
+        <v>0.1185460403325322</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.090935030255935</v>
+        <v>1.47854960731118</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.683062094880711</v>
+        <v>2.909412039891492</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6687616125930731</v>
+        <v>0.2358781291054299</v>
       </c>
       <c r="E4">
-        <v>0.4005438109738932</v>
+        <v>0.1094861851150384</v>
       </c>
       <c r="F4">
-        <v>5.644645105665887</v>
+        <v>6.423296494313178</v>
       </c>
       <c r="G4">
-        <v>0.0008089629874053182</v>
+        <v>0.002704200464143268</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3685356013178875</v>
+        <v>0.1088865404359893</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.887796658228666</v>
+        <v>1.438808411844349</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.582622084309492</v>
+        <v>2.891299110976604</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6370013896384421</v>
+        <v>0.2286177645507337</v>
       </c>
       <c r="E5">
-        <v>0.3819819453201418</v>
+        <v>0.1048784935284743</v>
       </c>
       <c r="F5">
-        <v>5.474151349828077</v>
+        <v>6.399008706135959</v>
       </c>
       <c r="G5">
-        <v>0.0008141544389834906</v>
+        <v>0.002707266470540425</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3537748024947831</v>
+        <v>0.1049435822378371</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.80668710940941</v>
+        <v>1.422902673287439</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.566055682597607</v>
+        <v>2.888321612261223</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6317726495318539</v>
+        <v>0.2274150007617095</v>
       </c>
       <c r="E6">
-        <v>0.378920086006282</v>
+        <v>0.1041138803811137</v>
       </c>
       <c r="F6">
-        <v>5.44619218660398</v>
+        <v>6.395040639060682</v>
       </c>
       <c r="G6">
-        <v>0.0008150189153181533</v>
+        <v>0.002707780904018687</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3513361011948888</v>
+        <v>0.1042884417644956</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.793310521059027</v>
+        <v>1.42027891608214</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.68169983610602</v>
+        <v>2.909165740455705</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6683301620669226</v>
+        <v>0.2357800230307134</v>
       </c>
       <c r="E7">
-        <v>0.4002920649326143</v>
+        <v>0.1094240106403674</v>
       </c>
       <c r="F7">
-        <v>5.642321573796124</v>
+        <v>6.422964579028985</v>
       </c>
       <c r="G7">
-        <v>0.0008090328450613875</v>
+        <v>0.002704241456565392</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3683356701618123</v>
+        <v>0.1088333918475968</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.886696450339116</v>
+        <v>1.438592734645795</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210679954681552</v>
+        <v>3.005545458235076</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8374064946979161</v>
+        <v>0.2731195988216939</v>
       </c>
       <c r="E8">
-        <v>0.4981666410466801</v>
+        <v>0.1329349113310556</v>
       </c>
       <c r="F8">
-        <v>6.566469570119409</v>
+        <v>6.555738157996103</v>
       </c>
       <c r="G8">
-        <v>0.0007828842246924896</v>
+        <v>0.002689393824784348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4455688671542362</v>
+        <v>0.1288324017015015</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.314407257403502</v>
+        <v>1.521953720532196</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.34526284401187</v>
+        <v>3.210558293627059</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.212069955021576</v>
+        <v>0.348051583508493</v>
       </c>
       <c r="E9">
-        <v>0.7106381275367539</v>
+        <v>0.1793951981833999</v>
       </c>
       <c r="F9">
-        <v>8.68425710840728</v>
+        <v>6.851610330379515</v>
       </c>
       <c r="G9">
-        <v>0.0007314706422101303</v>
+        <v>0.002663020886258381</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6104614975548088</v>
+        <v>0.1678836278594389</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.238124190279279</v>
+        <v>1.694789860026503</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.279240793834674</v>
+        <v>3.37116991353588</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.535037675001121</v>
+        <v>0.4043204471635136</v>
       </c>
       <c r="E10">
-        <v>0.8902427778096182</v>
+        <v>0.2138212858788791</v>
       </c>
       <c r="F10">
-        <v>10.55732400505946</v>
+        <v>7.091783433543412</v>
       </c>
       <c r="G10">
-        <v>0.0006920971986791087</v>
+        <v>0.00264528981801868</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7476804197680025</v>
+        <v>0.1965136111849546</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.008790038018674</v>
+        <v>1.827713469051957</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.740154676887812</v>
+        <v>3.446458905480597</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.700004626553181</v>
+        <v>0.4302218893978136</v>
       </c>
       <c r="E11">
-        <v>0.9810275394846286</v>
+        <v>0.2295630426927886</v>
       </c>
       <c r="F11">
-        <v>11.52436449147837</v>
+        <v>7.206251961215912</v>
       </c>
       <c r="G11">
-        <v>0.000673301874552608</v>
+        <v>0.002637574814261337</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8164856273494649</v>
+        <v>0.2095344441454614</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.393614007606232</v>
+        <v>1.889527930434724</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.921719392036891</v>
+        <v>3.475293200260182</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.766096272737229</v>
+        <v>0.4400770719034313</v>
       </c>
       <c r="E12">
-        <v>1.0172469136525</v>
+        <v>0.235537095412667</v>
       </c>
       <c r="F12">
-        <v>11.91316120320107</v>
+        <v>7.250368939011253</v>
       </c>
       <c r="G12">
-        <v>0.0006659865494549643</v>
+        <v>0.00263470334301912</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8438518269377369</v>
+        <v>0.2144654199861691</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.546147114397058</v>
+        <v>1.913133479371822</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.88226519318755</v>
+        <v>3.469068745300206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.751679373020636</v>
+        <v>0.4379524474188088</v>
       </c>
       <c r="E13">
-        <v>1.009353143413819</v>
+        <v>0.2342498769466772</v>
       </c>
       <c r="F13">
-        <v>11.82829417682279</v>
+        <v>7.24083296745863</v>
       </c>
       <c r="G13">
-        <v>0.0006675723326987784</v>
+        <v>0.002635319547450723</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8378912970955241</v>
+        <v>0.2134034223934833</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.512953834335008</v>
+        <v>1.908040739849298</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.754937765003035</v>
+        <v>3.44882460403619</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.705361784965817</v>
+        <v>0.4310317238721666</v>
       </c>
       <c r="E14">
-        <v>0.9839664312669214</v>
+        <v>0.2300542635066449</v>
       </c>
       <c r="F14">
-        <v>11.55585328492566</v>
+        <v>7.209865934689958</v>
       </c>
       <c r="G14">
-        <v>0.0006727045300301928</v>
+        <v>0.002637337576371402</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8187078318136258</v>
+        <v>0.2099401088843962</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.406012588820317</v>
+        <v>1.891465985809646</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.677929681190051</v>
+        <v>3.436466794839987</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.677501355202793</v>
+        <v>0.4267987776844677</v>
       </c>
       <c r="E15">
-        <v>0.9686763452912146</v>
+        <v>0.2274860609661999</v>
       </c>
       <c r="F15">
-        <v>11.39214554524801</v>
+        <v>7.190998662217112</v>
       </c>
       <c r="G15">
-        <v>0.0006758197147236079</v>
+        <v>0.002638580180273059</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8071430885056685</v>
+        <v>0.2078187861961709</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.341465349904581</v>
+        <v>1.88133934817148</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.249984736584338</v>
+        <v>3.366294721375766</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.524697501689303</v>
+        <v>0.4026341154180386</v>
       </c>
       <c r="E16">
-        <v>0.8845329137935636</v>
+        <v>0.2127942699596161</v>
       </c>
       <c r="F16">
-        <v>10.49689968196338</v>
+        <v>7.084409291194135</v>
       </c>
       <c r="G16">
-        <v>0.0006933023586978671</v>
+        <v>0.002645801036520462</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7433418857374505</v>
+        <v>0.1956626670866655</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.984472824720569</v>
+        <v>1.823701194883142</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.997774221801706</v>
+        <v>3.323819258007177</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.436178323360764</v>
+        <v>0.3878900259778675</v>
       </c>
       <c r="E17">
-        <v>0.8355507083886096</v>
+        <v>0.2038030431400841</v>
       </c>
       <c r="F17">
-        <v>9.980702301502618</v>
+        <v>7.020369770645374</v>
       </c>
       <c r="G17">
-        <v>0.0007037594879869814</v>
+        <v>0.002650320377536516</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7060644375534224</v>
+        <v>0.1882049862614537</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.77534363359473</v>
+        <v>1.788689855527139</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.855958779178877</v>
+        <v>3.299597767465684</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.386882495891399</v>
+        <v>0.3794380824627694</v>
       </c>
       <c r="E18">
-        <v>0.8081901169440755</v>
+        <v>0.1986390843023003</v>
       </c>
       <c r="F18">
-        <v>9.694147450316933</v>
+        <v>6.984025297289406</v>
       </c>
       <c r="G18">
-        <v>0.000709696469042972</v>
+        <v>0.002652952841984115</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.685193221612721</v>
+        <v>0.1839151897449653</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.658133905439001</v>
+        <v>1.768678774853527</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.808456067155817</v>
+        <v>3.291432614266</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.370445277193085</v>
+        <v>0.3765811961135057</v>
       </c>
       <c r="E19">
-        <v>0.7990532027729103</v>
+        <v>0.1968919150204016</v>
       </c>
       <c r="F19">
-        <v>9.598756862210536</v>
+        <v>6.971803110831218</v>
       </c>
       <c r="G19">
-        <v>0.0007116949783688707</v>
+        <v>0.002653849840076113</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6782151933328606</v>
+        <v>0.1824626595521721</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.618931954389325</v>
+        <v>1.76192497482441</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.024275193009316</v>
+        <v>3.328319157099486</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.445427850349716</v>
+        <v>0.3894565911713812</v>
       </c>
       <c r="E20">
-        <v>0.8406777083585126</v>
+        <v>0.2047593830444043</v>
       </c>
       <c r="F20">
-        <v>10.03454553297274</v>
+        <v>7.02713609148185</v>
       </c>
       <c r="G20">
-        <v>0.0007026547660895155</v>
+        <v>0.002649835867735606</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7099714257452518</v>
+        <v>0.1889988988156546</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.797276340763062</v>
+        <v>1.792403749544007</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.79212738858638</v>
+        <v>3.454761974041219</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.718857433637737</v>
+        <v>0.4330632110989541</v>
       </c>
       <c r="E21">
-        <v>0.9913675897919916</v>
+        <v>0.2312862535425637</v>
       </c>
       <c r="F21">
-        <v>11.63520004911453</v>
+        <v>7.21894063164558</v>
       </c>
       <c r="G21">
-        <v>0.0006712031814428725</v>
+        <v>0.002636743477980861</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.824302787383715</v>
+        <v>0.2109573548461583</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.437219616754419</v>
+        <v>1.89632899238245</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.336488897480422</v>
+        <v>3.53929006693096</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.919576126118727</v>
+        <v>0.4618373397009918</v>
       </c>
       <c r="E22">
-        <v>1.101058301373754</v>
+        <v>0.2486994660597333</v>
       </c>
       <c r="F22">
-        <v>12.81829223018389</v>
+        <v>7.348795457957067</v>
       </c>
       <c r="G22">
-        <v>0.0006494323867815668</v>
+        <v>0.002628478271911649</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9070197184751976</v>
+        <v>0.2253104008400868</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.896783213965023</v>
+        <v>1.965404841225791</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.041206646950002</v>
+        <v>3.49400151988732</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.809947990149169</v>
+        <v>0.4464538689914832</v>
       </c>
       <c r="E23">
-        <v>1.041234292255879</v>
+        <v>0.2393982701261592</v>
       </c>
       <c r="F23">
-        <v>12.17147928218446</v>
+        <v>7.279070822161088</v>
       </c>
       <c r="G23">
-        <v>0.0006611963666675179</v>
+        <v>0.002632863046298077</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8619522759868659</v>
+        <v>0.2176494884764679</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.646838835274082</v>
+        <v>1.928430707119105</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.012284313743578</v>
+        <v>3.32628413560326</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.441241240958533</v>
+        <v>0.3887482705630418</v>
       </c>
       <c r="E24">
-        <v>0.8383573364323524</v>
+        <v>0.2043270056224316</v>
       </c>
       <c r="F24">
-        <v>10.0101716086173</v>
+        <v>7.024075567033719</v>
       </c>
       <c r="G24">
-        <v>0.0007031544396505018</v>
+        <v>0.002650054807790383</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7082033584916019</v>
+        <v>0.1886399780942014</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.787351281400902</v>
+        <v>1.790724332675438</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.02437476415264</v>
+        <v>3.153359836800007</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.104282437206678</v>
+        <v>0.3275797610137658</v>
       </c>
       <c r="E25">
-        <v>0.6500332334374974</v>
+        <v>0.1667808001507325</v>
       </c>
       <c r="F25">
-        <v>8.067442815829594</v>
+        <v>6.767650721129201</v>
       </c>
       <c r="G25">
-        <v>0.0007455234749419462</v>
+        <v>0.002669864586587028</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5637541046412196</v>
+        <v>0.1573330014196586</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.975710786070522</v>
+        <v>1.647007169176959</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_95/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.032735120064274</v>
+        <v>3.359432074872359</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2833460919314064</v>
+        <v>0.8855463182736401</v>
       </c>
       <c r="E2">
-        <v>0.1393265427079342</v>
+        <v>0.5257761861994794</v>
       </c>
       <c r="F2">
-        <v>6.59407392202786</v>
+        <v>6.833904581348406</v>
       </c>
       <c r="G2">
-        <v>0.002685557512994389</v>
+        <v>0.0007758321634002442</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1342384014459554</v>
+        <v>0.467191749085174</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.545165939102986</v>
+        <v>2.434933594507385</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.955087695476834</v>
+        <v>2.934473009037447</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2538119477628413</v>
+        <v>0.7487276185204621</v>
       </c>
       <c r="E3">
-        <v>0.1208143278345304</v>
+        <v>0.4470194640080152</v>
       </c>
       <c r="F3">
-        <v>6.485554242696054</v>
+        <v>6.078550573737004</v>
       </c>
       <c r="G3">
-        <v>0.002696892544302101</v>
+        <v>0.0007963081170675503</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1185460403325322</v>
+        <v>0.405328192534725</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.47854960731118</v>
+        <v>2.090935030255821</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.909412039891492</v>
+        <v>2.68306209488054</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2358781291054299</v>
+        <v>0.668761612593272</v>
       </c>
       <c r="E4">
-        <v>0.1094861851150384</v>
+        <v>0.4005438109738719</v>
       </c>
       <c r="F4">
-        <v>6.423296494313178</v>
+        <v>5.644645105665859</v>
       </c>
       <c r="G4">
-        <v>0.002704200464143268</v>
+        <v>0.0008089629873992721</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1088865404359893</v>
+        <v>0.3685356013181433</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.438808411844349</v>
+        <v>1.887796658228808</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.891299110976604</v>
+        <v>2.582622084309889</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2286177645507337</v>
+        <v>0.6370013896381863</v>
       </c>
       <c r="E5">
-        <v>0.1048784935284743</v>
+        <v>0.3819819453201063</v>
       </c>
       <c r="F5">
-        <v>6.399008706135959</v>
+        <v>5.474151349828048</v>
       </c>
       <c r="G5">
-        <v>0.002707266470540425</v>
+        <v>0.000814154438836053</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1049435822378371</v>
+        <v>0.3537748024947689</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.422902673287439</v>
+        <v>1.80668710940941</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.888321612261223</v>
+        <v>2.566055682597494</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2274150007617095</v>
+        <v>0.6317726495320812</v>
       </c>
       <c r="E6">
-        <v>0.1041138803811137</v>
+        <v>0.3789200860062678</v>
       </c>
       <c r="F6">
-        <v>6.395040639060682</v>
+        <v>5.44619218660398</v>
       </c>
       <c r="G6">
-        <v>0.002707780904018687</v>
+        <v>0.000815018915495567</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1042884417644956</v>
+        <v>0.3513361011948035</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.42027891608214</v>
+        <v>1.793310521058942</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.909165740455705</v>
+        <v>2.681699836106134</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2357800230307134</v>
+        <v>0.6683301620666953</v>
       </c>
       <c r="E7">
-        <v>0.1094240106403674</v>
+        <v>0.4002920649326711</v>
       </c>
       <c r="F7">
-        <v>6.422964579028985</v>
+        <v>5.642321573796096</v>
       </c>
       <c r="G7">
-        <v>0.002704241456565392</v>
+        <v>0.0008090328450091082</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1088333918475968</v>
+        <v>0.3683356701617555</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.438592734645795</v>
+        <v>1.886696450339088</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.005545458235076</v>
+        <v>3.210679954681723</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2731195988216939</v>
+        <v>0.8374064946975182</v>
       </c>
       <c r="E8">
-        <v>0.1329349113310556</v>
+        <v>0.4981666410466801</v>
       </c>
       <c r="F8">
-        <v>6.555738157996103</v>
+        <v>6.566469570119381</v>
       </c>
       <c r="G8">
-        <v>0.002689393824784348</v>
+        <v>0.0007828842245832348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1288324017015015</v>
+        <v>0.4455688671541651</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.521953720532196</v>
+        <v>2.314407257403388</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.210558293627059</v>
+        <v>4.34526284401187</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.348051583508493</v>
+        <v>1.212069955021576</v>
       </c>
       <c r="E9">
-        <v>0.1793951981833999</v>
+        <v>0.7106381275367539</v>
       </c>
       <c r="F9">
-        <v>6.851610330379515</v>
+        <v>8.684257108407252</v>
       </c>
       <c r="G9">
-        <v>0.002663020886258381</v>
+        <v>0.0007314706422132172</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1678836278594389</v>
+        <v>0.6104614975547236</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.694789860026503</v>
+        <v>3.23812419027945</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.37116991353588</v>
+        <v>5.27924079383456</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4043204471635136</v>
+        <v>1.535037675000723</v>
       </c>
       <c r="E10">
-        <v>0.2138212858788791</v>
+        <v>0.8902427778095188</v>
       </c>
       <c r="F10">
-        <v>7.091783433543412</v>
+        <v>10.55732400505951</v>
       </c>
       <c r="G10">
-        <v>0.00264528981801868</v>
+        <v>0.0006920971985635426</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1965136111849546</v>
+        <v>0.7476804197677751</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.827713469051957</v>
+        <v>4.008790038018674</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.446458905480597</v>
+        <v>5.740154676887926</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4302218893978136</v>
+        <v>1.700004626552982</v>
       </c>
       <c r="E11">
-        <v>0.2295630426927886</v>
+        <v>0.9810275394846286</v>
       </c>
       <c r="F11">
-        <v>7.206251961215912</v>
+        <v>11.52436449147808</v>
       </c>
       <c r="G11">
-        <v>0.002637574814261337</v>
+        <v>0.000673301874694682</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2095344441454614</v>
+        <v>0.8164856273493939</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.889527930434724</v>
+        <v>4.393614007606288</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.475293200260182</v>
+        <v>5.921719392036891</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4400770719034313</v>
+        <v>1.766096272737144</v>
       </c>
       <c r="E12">
-        <v>0.235537095412667</v>
+        <v>1.017246913652428</v>
       </c>
       <c r="F12">
-        <v>7.250368939011253</v>
+        <v>11.91316120320113</v>
       </c>
       <c r="G12">
-        <v>0.00263470334301912</v>
+        <v>0.0006659865495492547</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2144654199861691</v>
+        <v>0.8438518269377795</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.913133479371822</v>
+        <v>4.546147114397115</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.469068745300206</v>
+        <v>5.882265193187266</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4379524474188088</v>
+        <v>1.751679373020437</v>
       </c>
       <c r="E13">
-        <v>0.2342498769466772</v>
+        <v>1.009353143413691</v>
       </c>
       <c r="F13">
-        <v>7.24083296745863</v>
+        <v>11.82829417682268</v>
       </c>
       <c r="G13">
-        <v>0.002635319547450723</v>
+        <v>0.0006675723327082353</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2134034223934833</v>
+        <v>0.8378912970954246</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.908040739849298</v>
+        <v>4.512953834334837</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.44882460403619</v>
+        <v>5.754937765003149</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4310317238721666</v>
+        <v>1.705361784966215</v>
       </c>
       <c r="E14">
-        <v>0.2300542635066449</v>
+        <v>0.9839664312667793</v>
       </c>
       <c r="F14">
-        <v>7.209865934689958</v>
+        <v>11.55585328492572</v>
       </c>
       <c r="G14">
-        <v>0.002637337576371402</v>
+        <v>0.000672704530019839</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2099401088843962</v>
+        <v>0.8187078318134979</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.891465985809646</v>
+        <v>4.406012588820488</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.436466794839987</v>
+        <v>5.677929681189994</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4267987776844677</v>
+        <v>1.677501355202992</v>
       </c>
       <c r="E15">
-        <v>0.2274860609661999</v>
+        <v>0.9686763452912999</v>
       </c>
       <c r="F15">
-        <v>7.190998662217112</v>
+        <v>11.39214554524807</v>
       </c>
       <c r="G15">
-        <v>0.002638580180273059</v>
+        <v>0.0006758197144954647</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2078187861961709</v>
+        <v>0.8071430885059385</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.88133934817148</v>
+        <v>4.341465349904581</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.366294721375766</v>
+        <v>5.249984736584224</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4026341154180386</v>
+        <v>1.524697501689445</v>
       </c>
       <c r="E16">
-        <v>0.2127942699596161</v>
+        <v>0.8845329137935494</v>
       </c>
       <c r="F16">
-        <v>7.084409291194135</v>
+        <v>10.49689968196344</v>
       </c>
       <c r="G16">
-        <v>0.002645801036520462</v>
+        <v>0.0006933023586999247</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1956626670866655</v>
+        <v>0.7433418857372232</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.823701194883142</v>
+        <v>3.984472824720683</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.323819258007177</v>
+        <v>4.997774221801933</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3878900259778675</v>
+        <v>1.436178323361503</v>
       </c>
       <c r="E17">
-        <v>0.2038030431400841</v>
+        <v>0.8355507083886096</v>
       </c>
       <c r="F17">
-        <v>7.020369770645374</v>
+        <v>9.980702301502561</v>
       </c>
       <c r="G17">
-        <v>0.002650320377536516</v>
+        <v>0.0007037594881144784</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1882049862614537</v>
+        <v>0.7060644375533656</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.788689855527139</v>
+        <v>3.775343633594787</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.299597767465684</v>
+        <v>4.855958779178934</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3794380824627694</v>
+        <v>1.386882495891399</v>
       </c>
       <c r="E18">
-        <v>0.1986390843023003</v>
+        <v>0.8081901169440755</v>
       </c>
       <c r="F18">
-        <v>6.984025297289406</v>
+        <v>9.694147450316905</v>
       </c>
       <c r="G18">
-        <v>0.002652952841984115</v>
+        <v>0.0007096964690265407</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1839151897449653</v>
+        <v>0.6851932216127352</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.768678774853527</v>
+        <v>3.658133905439001</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.291432614266</v>
+        <v>4.808456067155703</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3765811961135057</v>
+        <v>1.37044527719334</v>
       </c>
       <c r="E19">
-        <v>0.1968919150204016</v>
+        <v>0.7990532027728534</v>
       </c>
       <c r="F19">
-        <v>6.971803110831218</v>
+        <v>9.598756862210564</v>
       </c>
       <c r="G19">
-        <v>0.002653849840076113</v>
+        <v>0.0007116949783639859</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1824626595521721</v>
+        <v>0.678215193332818</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.76192497482441</v>
+        <v>3.618931954389325</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.328319157099486</v>
+        <v>5.02427519300943</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3894565911713812</v>
+        <v>1.445427850350057</v>
       </c>
       <c r="E20">
-        <v>0.2047593830444043</v>
+        <v>0.8406777083585695</v>
       </c>
       <c r="F20">
-        <v>7.02713609148185</v>
+        <v>10.03454553297257</v>
       </c>
       <c r="G20">
-        <v>0.002649835867735606</v>
+        <v>0.0007026547663311311</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1889988988156546</v>
+        <v>0.7099714257451097</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.792403749544007</v>
+        <v>3.797276340763233</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.454761974041219</v>
+        <v>5.792127388586437</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4330632110989541</v>
+        <v>1.718857433637083</v>
       </c>
       <c r="E21">
-        <v>0.2312862535425637</v>
+        <v>0.9913675897921479</v>
       </c>
       <c r="F21">
-        <v>7.21894063164558</v>
+        <v>11.63520004911464</v>
       </c>
       <c r="G21">
-        <v>0.002636743477980861</v>
+        <v>0.0006712031815410966</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2109573548461583</v>
+        <v>0.8243027873836724</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.89632899238245</v>
+        <v>4.437219616754362</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.53929006693096</v>
+        <v>6.336488897480308</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4618373397009918</v>
+        <v>1.91957612611867</v>
       </c>
       <c r="E22">
-        <v>0.2486994660597333</v>
+        <v>1.101058301373769</v>
       </c>
       <c r="F22">
-        <v>7.348795457957067</v>
+        <v>12.81829223018389</v>
       </c>
       <c r="G22">
-        <v>0.002628478271911649</v>
+        <v>0.0006494323867790739</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2253104008400868</v>
+        <v>0.9070197184752971</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.965404841225791</v>
+        <v>4.896783213965307</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.49400151988732</v>
+        <v>6.041206646950002</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4464538689914832</v>
+        <v>1.809947990149226</v>
       </c>
       <c r="E23">
-        <v>0.2393982701261592</v>
+        <v>1.041234292255893</v>
       </c>
       <c r="F23">
-        <v>7.279070822161088</v>
+        <v>12.17147928218452</v>
       </c>
       <c r="G23">
-        <v>0.002632863046298077</v>
+        <v>0.0006611963666694794</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2176494884764679</v>
+        <v>0.8619522759867664</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.928430707119105</v>
+        <v>4.646838835274082</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.32628413560326</v>
+        <v>5.012284313743692</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3887482705630418</v>
+        <v>1.441241240958675</v>
       </c>
       <c r="E24">
-        <v>0.2043270056224316</v>
+        <v>0.8383573364323382</v>
       </c>
       <c r="F24">
-        <v>7.024075567033719</v>
+        <v>10.01017160861744</v>
       </c>
       <c r="G24">
-        <v>0.002650054807790383</v>
+        <v>0.0007031544396386945</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1886399780942014</v>
+        <v>0.7082033584915735</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.790724332675438</v>
+        <v>3.787351281400959</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.153359836800007</v>
+        <v>4.024374764152583</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3275797610137658</v>
+        <v>1.10428243720736</v>
       </c>
       <c r="E25">
-        <v>0.1667808001507325</v>
+        <v>0.65003323343754</v>
       </c>
       <c r="F25">
-        <v>6.767650721129201</v>
+        <v>8.067442815829594</v>
       </c>
       <c r="G25">
-        <v>0.002669864586587028</v>
+        <v>0.0007455234750513018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1573330014196586</v>
+        <v>0.5637541046411201</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.647007169176959</v>
+        <v>2.975710786070522</v>
       </c>
       <c r="M25">
         <v>0</v>
